--- a/log_history/Y3_B2526_Biochemistry_LAB_CBL_System_2025-10-11T00-40-09.xlsx
+++ b/log_history/Y3_B2526_Biochemistry_LAB_CBL_System_2025-10-11T00-40-09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B65E3D4-F341-4C6F-B9AD-F5104879BC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30EE32A-0032-4E0B-98F6-8DDD65B28B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="1300" windowWidth="18280" windowHeight="13100" xr2:uid="{BB50BE7B-9CF4-4F6E-9E69-E5B2D2ED95E3}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{BB50BE7B-9CF4-4F6E-9E69-E5B2D2ED95E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -62,17 +62,14 @@
     <t>System</t>
   </si>
   <si>
-    <t>Biochemistry Lab/CBL</t>
+    <t>Biochemistry LAB/CBL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,19 +77,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,12 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,6 +482,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,17 +506,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>220870</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45937</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.52083333333333337</v>
       </c>
       <c r="E2" t="s">
@@ -529,17 +526,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>220885</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>45937</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.52083333333333337</v>
       </c>
       <c r="E3" t="s">
@@ -549,17 +546,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>220939</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>45937</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E4" t="s">
@@ -569,17 +566,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>221041</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>45937</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E5" t="s">
@@ -589,17 +586,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>221252</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>45937</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E6" t="s">
@@ -609,17 +606,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>221266</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>45937</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E7" t="s">
@@ -629,17 +626,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>221268</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>45937</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E8" t="s">
@@ -649,17 +646,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>221310</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>45937</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E9" t="s">
@@ -669,17 +666,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>221724</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>45937</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E10" t="s">
@@ -689,17 +686,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>221759</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>45937</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E11" t="s">
@@ -709,17 +706,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>221771</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1">
         <v>45937</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E12" t="s">
@@ -729,17 +726,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>221785</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>45937</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E13" t="s">
@@ -749,17 +746,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>221815</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>45937</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E14" t="s">
@@ -769,17 +766,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>221910</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>45937</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E15" t="s">
@@ -789,17 +786,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>221920</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1">
         <v>45937</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E16" t="s">
@@ -809,17 +806,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>221922</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>45937</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E17" t="s">
@@ -829,17 +826,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>221942</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1">
         <v>45937</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E18" t="s">
@@ -849,17 +846,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>221950</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1">
         <v>45937</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E19" t="s">
@@ -869,17 +866,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>221952</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1">
         <v>45937</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E20" t="s">
@@ -889,17 +886,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>221958</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1">
         <v>45937</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E21" t="s">
@@ -909,17 +906,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>221972</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="1">
         <v>45937</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E22" t="s">
@@ -929,17 +926,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>221978</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1">
         <v>45937</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E23" t="s">
@@ -949,17 +946,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>221983</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1">
         <v>45937</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E24" t="s">
@@ -969,17 +966,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>221984</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="1">
         <v>45937</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E25" t="s">
@@ -989,17 +986,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>221991</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1">
         <v>45937</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E26" t="s">
@@ -1009,17 +1006,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>221992</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="1">
         <v>45937</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E27" t="s">
@@ -1029,17 +1026,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>222044</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="1">
         <v>45937</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E28" t="s">
@@ -1049,17 +1046,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>222045</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1">
         <v>45937</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E29" t="s">
@@ -1069,17 +1066,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>222046</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1">
         <v>45937</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E30" t="s">
@@ -1089,17 +1086,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>222061</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>45937</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E31" t="s">
@@ -1109,17 +1106,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>222109</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="1">
         <v>45937</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E32" t="s">
@@ -1129,17 +1126,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>212505</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="1">
         <v>45937</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E33" t="s">
@@ -1149,17 +1146,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>212217</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="1">
         <v>45937</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E34" t="s">
@@ -1169,17 +1166,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>212182</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1">
         <v>45937</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E35" t="s">
@@ -1189,17 +1186,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>212134</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1">
         <v>45937</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E36" t="s">
@@ -1209,17 +1206,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>212118</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1">
         <v>45937</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E37" t="s">
@@ -1229,17 +1226,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>212107</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1">
         <v>45937</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E38" t="s">
@@ -1249,17 +1246,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>212089</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1">
         <v>45937</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E39" t="s">
@@ -1269,17 +1266,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>212072</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="1">
         <v>45937</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E40" t="s">
@@ -1289,17 +1286,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>212013</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1">
         <v>45937</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E41" t="s">
@@ -1309,17 +1306,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>212012</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1">
         <v>45937</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E42" t="s">
@@ -1329,17 +1326,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>212002</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="1">
         <v>45937</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E43" t="s">
@@ -1349,17 +1346,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>212001</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1">
         <v>45937</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E44" t="s">
@@ -1369,17 +1366,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>211059</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1">
         <v>45937</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E45" t="s">
@@ -1389,17 +1386,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>210896</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1">
         <v>45937</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E46" t="s">
@@ -1409,17 +1406,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>201898</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="1">
         <v>45937</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E47" t="s">
@@ -1429,17 +1426,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>201886</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1">
         <v>45937</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E48" t="s">
@@ -1449,17 +1446,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>221630</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="1">
         <v>45937</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E49" t="s">
@@ -1469,17 +1466,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>221645</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1">
         <v>45937</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E50" t="s">
@@ -1489,17 +1486,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>221704</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1">
         <v>45937</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E51" t="s">
@@ -1509,17 +1506,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>221705</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1">
         <v>45937</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E52" t="s">
@@ -1529,17 +1526,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>221736</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1">
         <v>45937</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E53" t="s">
@@ -1549,17 +1546,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>221737</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1">
         <v>45937</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E54" t="s">
@@ -1569,17 +1566,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>221760</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1">
         <v>45937</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E55" t="s">
@@ -1589,17 +1586,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>221777</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>45937</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E56" t="s">
@@ -1609,17 +1606,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>221795</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="1">
         <v>45937</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E57" t="s">
@@ -1629,17 +1626,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>221823</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1">
         <v>45937</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E58" t="s">
@@ -1649,17 +1646,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>221836</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1">
         <v>45937</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E59" t="s">
@@ -1669,17 +1666,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>221856</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="1">
         <v>45937</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E60" t="s">
@@ -1689,17 +1686,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>221932</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1">
         <v>45937</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E61" t="s">
@@ -1709,17 +1706,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>221977</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="1">
         <v>45937</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E62" t="s">
@@ -1729,17 +1726,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>211626</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="1">
         <v>45937</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E63" t="s">
@@ -1749,17 +1746,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>211647</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="1">
         <v>45937</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E64" t="s">
@@ -1769,17 +1766,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>212174</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1">
         <v>45937</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E65" t="s">
@@ -1789,17 +1786,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>212215</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="1">
         <v>45937</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E66" t="s">
@@ -1809,17 +1806,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>212243</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="1">
         <v>45937</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E67" t="s">
@@ -1829,17 +1826,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>212491</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="1">
         <v>45937</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E68" t="s">
@@ -1849,17 +1846,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>201466</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="1">
         <v>45937</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E69" t="s">
@@ -1869,17 +1866,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>201789</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="1">
         <v>45937</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E70" t="s">
@@ -1889,17 +1886,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>191422</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="1">
         <v>45937</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E71" t="s">
@@ -1909,17 +1906,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>221043</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="1">
         <v>45937</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E72" t="s">
@@ -1929,17 +1926,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>221316</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="1">
         <v>45937</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E73" t="s">
@@ -1949,17 +1946,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>221332</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="1">
         <v>45937</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E74" t="s">
@@ -1969,17 +1966,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>221540</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="1">
         <v>45937</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E75" t="s">
@@ -1989,17 +1986,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>221545</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="1">
         <v>45937</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E76" t="s">
@@ -2009,17 +2006,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>221604</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="1">
         <v>45937</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E77" t="s">
@@ -2029,17 +2026,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>220322</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="1">
         <v>45937</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E78" t="s">
@@ -2049,17 +2046,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>220326</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="1">
         <v>45937</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E79" t="s">
@@ -2069,17 +2066,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>220339</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="1">
         <v>45937</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E80" t="s">
@@ -2089,17 +2086,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>220395</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="1">
         <v>45937</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E81" t="s">
@@ -2109,17 +2106,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>220435</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="1">
         <v>45937</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E82" t="s">
@@ -2129,17 +2126,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>220481</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="1">
         <v>45937</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E83" t="s">
@@ -2149,17 +2146,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>220544</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="1">
         <v>45937</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E84" t="s">
@@ -2169,17 +2166,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>220588</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="1">
         <v>45937</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E85" t="s">
@@ -2189,17 +2186,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>220591</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="1">
         <v>45937</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E86" t="s">
@@ -2209,17 +2206,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>220607</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="1">
         <v>45937</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E87" t="s">
@@ -2229,17 +2226,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>220626</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="1">
         <v>45937</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E88" t="s">
@@ -2249,17 +2246,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>220682</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="1">
         <v>45937</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E89" t="s">
@@ -2269,17 +2266,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>220692</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="1">
         <v>45937</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E90" t="s">
@@ -2289,17 +2286,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>220695</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="1">
         <v>45937</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E91" t="s">
@@ -2309,17 +2306,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>220719</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="1">
         <v>45937</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E92" t="s">
@@ -2329,17 +2326,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>220843</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="1">
         <v>45937</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E93" t="s">
@@ -2349,17 +2346,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>220846</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="1">
         <v>45937</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E94" t="s">
@@ -2369,17 +2366,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>220891</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="1">
         <v>45937</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E95" t="s">
@@ -2389,17 +2386,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>220899</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="1">
         <v>45937</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E96" t="s">
@@ -2409,17 +2406,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>220907</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="1">
         <v>45937</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E97" t="s">
@@ -2429,17 +2426,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>220915</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="1">
         <v>45937</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E98" t="s">
@@ -2449,17 +2446,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>220916</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="1">
         <v>45937</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E99" t="s">
@@ -2469,17 +2466,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>220921</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="1">
         <v>45937</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E100" t="s">
@@ -2489,17 +2486,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>220949</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="1">
         <v>45937</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E101" t="s">
@@ -2509,17 +2506,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>220962</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="1">
         <v>45937</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E102" t="s">
@@ -2529,17 +2526,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>220977</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="1">
         <v>45937</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E103" t="s">
@@ -2549,17 +2546,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>220987</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="1">
         <v>45937</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E104" t="s">
@@ -2569,17 +2566,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>220993</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="1">
         <v>45937</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E105" t="s">
@@ -2589,17 +2586,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>221001</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="1">
         <v>45937</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E106" t="s">
@@ -2609,17 +2606,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>221010</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="1">
         <v>45937</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E107" t="s">
@@ -2629,17 +2626,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>221038</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="1">
         <v>45937</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E108" t="s">
@@ -2649,17 +2646,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>221058</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="1">
         <v>45937</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E109" t="s">
@@ -2669,17 +2666,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>221094</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="1">
         <v>45937</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E110" t="s">
@@ -2689,17 +2686,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>221135</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="1">
         <v>45937</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E111" t="s">
@@ -2709,17 +2706,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>221210</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="1">
         <v>45937</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E112" t="s">
@@ -2729,17 +2726,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>221227</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="1">
         <v>45937</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E113" t="s">
@@ -2749,17 +2746,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>221235</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="1">
         <v>45937</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E114" t="s">
@@ -2769,17 +2766,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>221257</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="1">
         <v>45937</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E115" t="s">
@@ -2789,17 +2786,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>221270</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="1">
         <v>45937</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E116" t="s">
@@ -2809,17 +2806,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>221279</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="1">
         <v>45937</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E117" t="s">
@@ -2829,17 +2826,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>221286</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="1">
         <v>45937</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E118" t="s">
@@ -2849,17 +2846,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>221288</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="1">
         <v>45937</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E119" t="s">
@@ -2869,17 +2866,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>221290</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="1">
         <v>45937</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E120" t="s">
@@ -2889,17 +2886,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>221297</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="1">
         <v>45937</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E121" t="s">
@@ -2909,17 +2906,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>221328</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="1">
         <v>45937</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E122" t="s">
@@ -2929,17 +2926,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>221331</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="1">
         <v>45937</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E123" t="s">
@@ -2949,17 +2946,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>221352</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="1">
         <v>45937</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E124" t="s">
@@ -2969,17 +2966,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>221365</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="1">
         <v>45937</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E125" t="s">
@@ -2989,17 +2986,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>221366</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="1">
         <v>45937</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E126" t="s">
@@ -3009,17 +3006,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>221377</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="1">
         <v>45937</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E127" t="s">
@@ -3029,17 +3026,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>221386</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="1">
         <v>45937</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E128" t="s">
@@ -3049,17 +3046,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>221397</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="1">
         <v>45937</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E129" t="s">
@@ -3069,17 +3066,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>221403</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="1">
         <v>45937</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E130" t="s">
@@ -3089,17 +3086,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>221448</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="1">
         <v>45937</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E131" t="s">
@@ -3109,17 +3106,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>221468</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="1">
         <v>45937</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E132" t="s">
@@ -3129,17 +3126,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>221471</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="1">
         <v>45937</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E133" t="s">
@@ -3149,17 +3146,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>221481</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="1">
         <v>45937</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E134" t="s">
@@ -3169,17 +3166,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>221485</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="1">
         <v>45937</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E135" t="s">
@@ -3189,17 +3186,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>221489</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="1">
         <v>45937</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E136" t="s">
@@ -3209,17 +3206,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>221490</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="1">
         <v>45937</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E137" t="s">
@@ -3229,17 +3226,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>221498</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="1">
         <v>45937</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E138" t="s">
@@ -3249,17 +3246,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>221518</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="1">
         <v>45937</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E139" t="s">
@@ -3269,17 +3266,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>221525</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="1">
         <v>45937</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E140" t="s">
@@ -3289,17 +3286,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>221528</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="1">
         <v>45937</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E141" t="s">
@@ -3309,17 +3306,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>221543</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="1">
         <v>45937</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E142" t="s">
@@ -3329,17 +3326,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>221572</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="1">
         <v>45937</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E143" t="s">
@@ -3349,17 +3346,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>221593</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="1">
         <v>45937</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E144" t="s">
@@ -3369,17 +3366,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>221601</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="1">
         <v>45937</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E145" t="s">
@@ -3389,17 +3386,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>210048</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="1">
         <v>45937</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E146" t="s">
@@ -3409,17 +3406,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>204055</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="1">
         <v>45937</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E147" t="s">
@@ -3429,17 +3426,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>220018</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="1">
         <v>45937</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E148" t="s">
@@ -3449,17 +3446,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>220034</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="1">
         <v>45937</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E149" t="s">
@@ -3469,17 +3466,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>220066</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="1">
         <v>45937</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E150" t="s">
@@ -3489,17 +3486,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>220075</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="1">
         <v>45937</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E151" t="s">
@@ -3509,17 +3506,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>220091</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="1">
         <v>45937</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E152" t="s">
@@ -3529,17 +3526,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>220094</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="1">
         <v>45937</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E153" t="s">
@@ -3549,17 +3546,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>220118</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="1">
         <v>45937</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E154" t="s">
@@ -3569,17 +3566,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>220173</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="1">
         <v>45937</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E155" t="s">
@@ -3589,17 +3586,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>220174</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="1">
         <v>45937</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E156" t="s">
@@ -3609,17 +3606,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>220178</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="1">
         <v>45937</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E157" t="s">
@@ -3629,17 +3626,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>220005</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="1">
         <v>45937</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E158" t="s">
@@ -3649,17 +3646,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>220169</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="1">
         <v>45937</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E159" t="s">
@@ -3669,17 +3666,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>220201</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="1">
         <v>45937</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="3">
         <v>0.52083333333333304</v>
       </c>
       <c r="E160" t="s">
@@ -3689,17 +3686,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>221611</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="1">
         <v>45937</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="3">
         <v>0.60416666666666663</v>
       </c>
       <c r="E161" t="s">
@@ -3709,18 +3706,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>221648</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="1">
         <v>45937</v>
       </c>
-      <c r="D162" s="2">
-        <v>0.60416666666666696</v>
+      <c r="D162" s="3">
+        <v>0.60416666666666663</v>
       </c>
       <c r="E162" t="s">
         <v>6</v>
@@ -3729,17 +3726,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>221659</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="1">
         <v>45937</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E163" t="s">
@@ -3749,17 +3746,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>221663</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="1">
         <v>45937</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E164" t="s">
@@ -3769,17 +3766,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>221664</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="1">
         <v>45937</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E165" t="s">
@@ -3789,17 +3786,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>221671</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C166" s="1">
         <v>45937</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E166" t="s">
@@ -3809,17 +3806,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>221679</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="1">
         <v>45937</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E167" t="s">
@@ -3829,17 +3826,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>221684</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C168" s="1">
         <v>45937</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E168" t="s">
@@ -3849,17 +3846,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>221685</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C169" s="1">
         <v>45937</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E169" t="s">
@@ -3869,17 +3866,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>221687</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="1">
         <v>45937</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E170" t="s">
@@ -3889,17 +3886,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>221754</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C171" s="1">
         <v>45937</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E171" t="s">
@@ -3909,17 +3906,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>221780</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C172" s="1">
         <v>45937</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E172" t="s">
@@ -3929,17 +3926,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>221790</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="1">
         <v>45937</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E173" t="s">
@@ -3949,17 +3946,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>221800</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="1">
         <v>45937</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E174" t="s">
@@ -3969,17 +3966,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>221801</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="1">
         <v>45937</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E175" t="s">
@@ -3989,17 +3986,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>221811</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="1">
         <v>45937</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E176" t="s">
@@ -4009,17 +4006,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>221820</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="1">
         <v>45937</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E177" t="s">
@@ -4029,17 +4026,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>221824</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C178" s="1">
         <v>45937</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E178" t="s">
@@ -4049,17 +4046,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>221827</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C179" s="1">
         <v>45937</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E179" t="s">
@@ -4069,17 +4066,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>221843</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C180" s="1">
         <v>45937</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E180" t="s">
@@ -4089,17 +4086,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>221846</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C181" s="1">
         <v>45937</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E181" t="s">
@@ -4109,17 +4106,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>221849</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C182" s="1">
         <v>45937</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E182" t="s">
@@ -4129,17 +4126,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>221858</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="1">
         <v>45937</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E183" t="s">
@@ -4149,17 +4146,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>221871</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="1">
         <v>45937</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E184" t="s">
@@ -4169,17 +4166,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>221879</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C185" s="1">
         <v>45937</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E185" t="s">
@@ -4189,17 +4186,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>221881</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="1">
         <v>45937</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E186" t="s">
@@ -4209,17 +4206,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>221886</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="1">
         <v>45937</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E187" t="s">
@@ -4229,17 +4226,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>221887</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="1">
         <v>45937</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E188" t="s">
@@ -4249,17 +4246,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>221951</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C189" s="1">
         <v>45937</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E189" t="s">
@@ -4269,17 +4266,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>222010</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="1">
         <v>45937</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E190" t="s">
@@ -4289,17 +4286,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>222016</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="1">
         <v>45937</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E191" t="s">
@@ -4309,17 +4306,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>222021</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="1">
         <v>45937</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E192" t="s">
@@ -4329,17 +4326,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>222030</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C193" s="1">
         <v>45937</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E193" t="s">
@@ -4349,17 +4346,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>222038</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="1">
         <v>45937</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E194" t="s">
@@ -4369,17 +4366,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>222043</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C195" s="1">
         <v>45937</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E195" t="s">
@@ -4389,17 +4386,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>222057</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C196" s="1">
         <v>45937</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E196" t="s">
@@ -4409,17 +4406,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>222070</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C197" s="1">
         <v>45937</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E197" t="s">
@@ -4429,17 +4426,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>222084</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="1">
         <v>45937</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E198" t="s">
@@ -4449,17 +4446,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>222093</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="1">
         <v>45937</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E199" t="s">
@@ -4469,17 +4466,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>222103</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C200" s="1">
         <v>45937</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E200" t="s">
@@ -4489,17 +4486,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>222104</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C201" s="1">
         <v>45937</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E201" t="s">
@@ -4509,17 +4506,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>222118</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C202" s="1">
         <v>45937</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E202" t="s">
@@ -4529,17 +4526,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>210305</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C203" s="1">
         <v>45937</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E203" t="s">
@@ -4549,17 +4546,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>210335</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C204" s="1">
         <v>45937</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E204" t="s">
@@ -4569,17 +4566,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>210740</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C205" s="1">
         <v>45937</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E205" t="s">
@@ -4589,17 +4586,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>210884</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C206" s="1">
         <v>45937</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E206" t="s">
@@ -4609,17 +4606,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>210903</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C207" s="1">
         <v>45937</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E207" t="s">
@@ -4629,17 +4626,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>210916</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C208" s="1">
         <v>45937</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E208" t="s">
@@ -4649,17 +4646,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>210949</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C209" s="1">
         <v>45937</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E209" t="s">
@@ -4669,17 +4666,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>210961</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C210" s="1">
         <v>45937</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E210" t="s">
@@ -4689,17 +4686,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210992</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C211" s="1">
         <v>45937</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E211" t="s">
@@ -4709,17 +4706,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211015</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C212" s="1">
         <v>45937</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E212" t="s">
@@ -4729,17 +4726,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>211036</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C213" s="1">
         <v>45937</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E213" t="s">
@@ -4749,17 +4746,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>211037</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C214" s="1">
         <v>45937</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E214" t="s">
@@ -4769,17 +4766,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>211065</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C215" s="1">
         <v>45937</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E215" t="s">
@@ -4789,17 +4786,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>211093</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C216" s="1">
         <v>45937</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D216" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E216" t="s">
@@ -4809,17 +4806,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>211094</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C217" s="1">
         <v>45937</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E217" t="s">
@@ -4829,17 +4826,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>211104</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C218" s="1">
         <v>45937</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E218" t="s">
@@ -4849,17 +4846,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>211130</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C219" s="1">
         <v>45937</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E219" t="s">
@@ -4869,17 +4866,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>211151</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C220" s="1">
         <v>45937</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E220" t="s">
@@ -4889,17 +4886,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>211156</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C221" s="1">
         <v>45937</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E221" t="s">
@@ -4909,17 +4906,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>211188</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C222" s="1">
         <v>45937</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E222" t="s">
@@ -4929,17 +4926,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>211211</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C223" s="1">
         <v>45937</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E223" t="s">
@@ -4949,17 +4946,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>211218</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C224" s="1">
         <v>45937</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E224" t="s">
@@ -4969,17 +4966,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>211227</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C225" s="1">
         <v>45937</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E225" t="s">
@@ -4989,17 +4986,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>211255</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C226" s="1">
         <v>45937</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E226" t="s">
@@ -5009,17 +5006,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>211258</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C227" s="1">
         <v>45937</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E227" t="s">
@@ -5029,17 +5026,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>211265</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C228" s="1">
         <v>45937</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E228" t="s">
@@ -5049,17 +5046,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>211270</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C229" s="1">
         <v>45937</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E229" t="s">
@@ -5069,17 +5066,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>211291</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C230" s="1">
         <v>45937</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E230" t="s">
@@ -5089,17 +5086,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>211297</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C231" s="1">
         <v>45937</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E231" t="s">
@@ -5109,17 +5106,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>211303</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C232" s="1">
         <v>45937</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E232" t="s">
@@ -5129,17 +5126,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>211381</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C233" s="1">
         <v>45937</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E233" t="s">
@@ -5149,17 +5146,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>211533</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C234" s="1">
         <v>45937</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E234" t="s">
@@ -5169,17 +5166,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>211540</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C235" s="1">
         <v>45937</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E235" t="s">
@@ -5189,17 +5186,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>211607</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C236" s="1">
         <v>45937</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E236" t="s">
@@ -5209,17 +5206,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>211624</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C237" s="1">
         <v>45937</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E237" t="s">
@@ -5229,17 +5226,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>211632</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C238" s="1">
         <v>45937</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E238" t="s">
@@ -5249,17 +5246,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>211665</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C239" s="1">
         <v>45937</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E239" t="s">
@@ -5269,17 +5266,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>211669</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C240" s="1">
         <v>45937</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E240" t="s">
@@ -5289,17 +5286,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>211671</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C241" s="1">
         <v>45937</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E241" t="s">
@@ -5309,17 +5306,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>211673</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C242" s="1">
         <v>45937</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E242" t="s">
@@ -5329,17 +5326,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>211691</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C243" s="1">
         <v>45937</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E243" t="s">
@@ -5349,17 +5346,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>211717</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C244" s="1">
         <v>45937</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E244" t="s">
@@ -5369,17 +5366,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>211722</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C245" s="1">
         <v>45937</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E245" t="s">
@@ -5389,17 +5386,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>211743</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C246" s="1">
         <v>45937</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E246" t="s">
@@ -5409,17 +5406,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>211747</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C247" s="1">
         <v>45937</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E247" t="s">
@@ -5429,17 +5426,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>211762</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C248" s="1">
         <v>45937</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E248" t="s">
@@ -5449,17 +5446,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>211832</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C249" s="1">
         <v>45937</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E249" t="s">
@@ -5469,17 +5466,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>211841</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C250" s="1">
         <v>45937</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E250" t="s">
@@ -5489,17 +5486,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>211842</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C251" s="1">
         <v>45937</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E251" t="s">
@@ -5509,17 +5506,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>211910</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C252" s="1">
         <v>45937</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E252" t="s">
@@ -5529,17 +5526,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>211914</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C253" s="1">
         <v>45937</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E253" t="s">
@@ -5549,17 +5546,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>211971</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C254" s="1">
         <v>45937</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E254" t="s">
@@ -5569,17 +5566,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>211987</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C255" s="1">
         <v>45937</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E255" t="s">
@@ -5589,17 +5586,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>212018</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C256" s="1">
         <v>45937</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E256" t="s">
@@ -5609,17 +5606,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>212031</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C257" s="1">
         <v>45937</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E257" t="s">
@@ -5629,17 +5626,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>212032</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C258" s="1">
         <v>45937</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E258" t="s">
@@ -5649,17 +5646,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>212041</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C259" s="1">
         <v>45937</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E259" t="s">
@@ -5669,17 +5666,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>212068</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C260" s="1">
         <v>45937</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E260" t="s">
@@ -5689,17 +5686,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>212078</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C261" s="1">
         <v>45937</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E261" t="s">
@@ -5709,17 +5706,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>212091</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C262" s="1">
         <v>45937</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E262" t="s">
@@ -5729,17 +5726,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>212120</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C263" s="1">
         <v>45937</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E263" t="s">
@@ -5749,17 +5746,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>212159</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C264" s="1">
         <v>45937</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E264" t="s">
@@ -5769,17 +5766,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>212201</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C265" s="1">
         <v>45937</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E265" t="s">
@@ -5789,17 +5786,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>212214</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C266" s="1">
         <v>45937</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E266" t="s">
@@ -5809,17 +5806,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>212277</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C267" s="1">
         <v>45937</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E267" t="s">
@@ -5829,17 +5826,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>212293</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C268" s="1">
         <v>45937</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E268" t="s">
@@ -5849,17 +5846,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>212302</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C269" s="1">
         <v>45937</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E269" t="s">
@@ -5869,17 +5866,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>212309</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C270" s="1">
         <v>45937</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E270" t="s">
@@ -5889,17 +5886,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>212312</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C271" s="1">
         <v>45937</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E271" t="s">
@@ -5909,17 +5906,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>212317</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C272" s="1">
         <v>45937</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E272" t="s">
@@ -5929,17 +5926,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>212319</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C273" s="1">
         <v>45937</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D273" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E273" t="s">
@@ -5949,17 +5946,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>212325</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C274" s="1">
         <v>45937</v>
       </c>
-      <c r="D274" s="2">
+      <c r="D274" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E274" t="s">
@@ -5969,17 +5966,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>212336</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C275" s="1">
         <v>45937</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E275" t="s">
@@ -5989,17 +5986,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>212352</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C276" s="1">
         <v>45937</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E276" t="s">
@@ -6009,17 +6006,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>212359</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C277" s="1">
         <v>45937</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E277" t="s">
@@ -6029,17 +6026,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>212410</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C278" s="1">
         <v>45937</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E278" t="s">
@@ -6049,17 +6046,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>212420</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C279" s="1">
         <v>45937</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E279" t="s">
@@ -6069,17 +6066,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>212430</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C280" s="1">
         <v>45937</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E280" t="s">
@@ -6089,17 +6086,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>212444</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C281" s="1">
         <v>45937</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E281" t="s">
@@ -6109,17 +6106,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>212446</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C282" s="1">
         <v>45937</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E282" t="s">
@@ -6129,17 +6126,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>212448</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C283" s="1">
         <v>45937</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E283" t="s">
@@ -6149,17 +6146,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>212486</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C284" s="1">
         <v>45937</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E284" t="s">
@@ -6169,17 +6166,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>212589</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C285" s="1">
         <v>45937</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E285" t="s">
@@ -6189,17 +6186,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>212594</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C286" s="1">
         <v>45937</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E286" t="s">
@@ -6209,17 +6206,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>200119</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C287" s="1">
         <v>45937</v>
       </c>
-      <c r="D287" s="2">
+      <c r="D287" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E287" t="s">
@@ -6229,17 +6226,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>200250</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C288" s="1">
         <v>45937</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E288" t="s">
@@ -6249,17 +6246,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>200285</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C289" s="1">
         <v>45937</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E289" t="s">
@@ -6269,17 +6266,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>200678</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C290" s="1">
         <v>45937</v>
       </c>
-      <c r="D290" s="2">
+      <c r="D290" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E290" t="s">
@@ -6289,17 +6286,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>200725</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C291" s="1">
         <v>45937</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E291" t="s">
@@ -6309,17 +6306,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>200851</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C292" s="1">
         <v>45937</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E292" t="s">
@@ -6329,17 +6326,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>200961</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C293" s="1">
         <v>45937</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E293" t="s">
@@ -6349,17 +6346,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>201546</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C294" s="1">
         <v>45937</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E294" t="s">
@@ -6369,17 +6366,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>220309</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C295" s="1">
         <v>45937</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E295" t="s">
@@ -6389,17 +6386,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>220312</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C296" s="1">
         <v>45937</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E296" t="s">
@@ -6409,17 +6406,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>220738</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C297" s="1">
         <v>45937</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E297" t="s">
@@ -6429,17 +6426,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>220865</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C298" s="1">
         <v>45937</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E298" t="s">
@@ -6449,17 +6446,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>221969</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C299" s="1">
         <v>45937</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E299" t="s">
@@ -6469,17 +6466,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>210675</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C300" s="1">
         <v>45937</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E300" t="s">
@@ -6489,17 +6486,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>211707</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C301" s="1">
         <v>45937</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E301" t="s">
@@ -6509,17 +6506,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>212043</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C302" s="1">
         <v>45937</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E302" t="s">
@@ -6529,17 +6526,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>212110</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C303" s="1">
         <v>45937</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E303" t="s">
@@ -6549,17 +6546,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>200563</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C304" s="1">
         <v>45937</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E304" t="s">
@@ -6569,17 +6566,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>200593</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C305" s="1">
         <v>45937</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E305" t="s">
@@ -6589,17 +6586,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>201024</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C306" s="1">
         <v>45937</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306" s="3">
         <v>0.60416666666666696</v>
       </c>
       <c r="E306" t="s">
@@ -6610,7 +6607,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F306">
+  <conditionalFormatting sqref="A1:F1 A2:A306">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>

--- a/log_history/Y3_B2526_Biochemistry_LAB_CBL_System_2025-10-11T00-40-09.xlsx
+++ b/log_history/Y3_B2526_Biochemistry_LAB_CBL_System_2025-10-11T00-40-09.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30EE32A-0032-4E0B-98F6-8DDD65B28B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998CCCA3-9368-4E2D-ACDE-E72132A29DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{BB50BE7B-9CF4-4F6E-9E69-E5B2D2ED95E3}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="10980" windowHeight="13770" activeTab="1" xr2:uid="{BB50BE7B-9CF4-4F6E-9E69-E5B2D2ED95E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="9">
   <si>
     <t>Student ID</t>
   </si>
@@ -113,7 +114,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -476,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2F1104-EFB2-4512-94E4-0583E5AAA370}">
   <dimension ref="A1:F306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6608,6 +6669,6160 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1 A2:A306">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439827DB-75C8-45BA-BE43-9F960FD43C42}">
+  <dimension ref="A1:F306"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>191422</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>201466</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>201789</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>201886</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>201898</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>204055</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>210048</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>210896</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>211059</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>211626</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>211647</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>212001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>212002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>212012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>212013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>212072</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>212089</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>212107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>212118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>212134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>212174</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>212182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>212215</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>212217</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>212243</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>212491</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>212505</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>220005</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>220018</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>220034</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>220066</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>220075</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>220091</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>220094</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>220118</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>220169</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>220173</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>220174</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>220178</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>220201</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>220322</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>220326</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>220339</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>220395</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>220435</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>220481</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>220544</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>220588</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>220591</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>220607</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>220626</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>220682</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>220692</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>220695</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>220719</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>220843</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>220846</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>220891</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>220899</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>220907</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>220915</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>220916</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>220921</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>220939</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>220949</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>220962</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>220977</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>220987</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>220993</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>221001</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>221010</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>221038</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>221041</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>221043</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>221058</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>221094</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>221135</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>221210</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>221227</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>221235</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>221252</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>221257</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>221266</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>221268</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>221270</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>221279</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>221286</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>221288</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>221290</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>221297</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>221310</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>221316</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>221328</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>221331</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>221332</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>221352</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>221365</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>221366</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>221377</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>221386</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>221397</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>221403</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>221448</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>221468</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>221471</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>221481</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>221485</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>221489</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>221490</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>221498</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>221518</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>221525</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>221528</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>221540</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>221543</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>221545</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>221572</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>221593</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>221601</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>221604</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>221630</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>221645</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>221704</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>221705</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>221724</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>221736</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>221737</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>221759</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>221760</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>221771</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>221777</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E132" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>221785</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>221795</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>221815</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>221823</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>221836</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>221856</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>221910</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>221920</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>221922</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>221932</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E142" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>221942</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>221950</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>221952</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>221958</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>221972</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>221977</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>221978</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>221983</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>221984</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>221991</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E152" t="s">
+        <v>6</v>
+      </c>
+      <c r="F152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>221992</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>222044</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D154" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>222045</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>222046</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>222061</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>222109</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>220870</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E159" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>220885</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>200119</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>200250</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>200285</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E163" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>200563</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E164" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>200593</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>200678</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>200725</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>200851</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E168" t="s">
+        <v>6</v>
+      </c>
+      <c r="F168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>200961</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E169" t="s">
+        <v>6</v>
+      </c>
+      <c r="F169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>201024</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E170" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>201546</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>210305</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E172" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>210335</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>210675</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>210740</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E175" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>210884</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D176" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E176" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>210903</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+      <c r="F177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>210916</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>210949</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>210961</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>210992</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E181" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>211015</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D182" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>211036</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+      <c r="F183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>211037</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E184" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>211065</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E185" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>211093</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>211094</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>211104</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>211130</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D189" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+      <c r="F189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>211151</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D190" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+      <c r="F190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>211156</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+      <c r="F191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>211188</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D192" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>211211</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D193" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+      <c r="F193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>211218</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D194" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>211227</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E195" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>211255</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>211258</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D197" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>211265</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E198" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>211270</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E199" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>211291</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E200" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>211297</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>211303</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E202" t="s">
+        <v>6</v>
+      </c>
+      <c r="F202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>211381</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D203" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+      <c r="F203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>211533</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D204" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>211540</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+      <c r="F205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>211607</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E206" t="s">
+        <v>6</v>
+      </c>
+      <c r="F206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>211624</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+      <c r="F207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>211632</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+      <c r="F208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>211665</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>211669</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D210" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E210" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>211671</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D211" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E211" t="s">
+        <v>6</v>
+      </c>
+      <c r="F211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>211673</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D212" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E212" t="s">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>211691</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D213" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
+      <c r="F213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>211707</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D214" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>211717</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D215" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E215" t="s">
+        <v>6</v>
+      </c>
+      <c r="F215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>211722</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D216" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E216" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>211743</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D217" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E217" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>211747</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D218" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>211762</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D219" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E219" t="s">
+        <v>6</v>
+      </c>
+      <c r="F219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>211832</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D220" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>211841</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D221" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E221" t="s">
+        <v>6</v>
+      </c>
+      <c r="F221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>211842</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D222" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+      <c r="F222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>211910</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D223" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+      <c r="F223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>211914</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D224" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+      <c r="F224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>211971</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
+      <c r="F225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>211987</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E226" t="s">
+        <v>6</v>
+      </c>
+      <c r="F226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>212018</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D227" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E227" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>212031</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D228" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E228" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>212032</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D229" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
+      <c r="F229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>212041</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D230" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E230" t="s">
+        <v>6</v>
+      </c>
+      <c r="F230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>212043</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D231" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>212068</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D232" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E232" t="s">
+        <v>6</v>
+      </c>
+      <c r="F232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>212078</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D233" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
+      <c r="F233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>212091</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D234" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+      <c r="F234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>212110</v>
+      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D235" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E235" t="s">
+        <v>6</v>
+      </c>
+      <c r="F235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>212120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D236" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E236" t="s">
+        <v>6</v>
+      </c>
+      <c r="F236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>212159</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D237" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E237" t="s">
+        <v>6</v>
+      </c>
+      <c r="F237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>212201</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D238" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E238" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>212214</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D239" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E239" t="s">
+        <v>6</v>
+      </c>
+      <c r="F239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>212277</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D240" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E240" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>212293</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D241" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+      <c r="F241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>212302</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D242" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E242" t="s">
+        <v>6</v>
+      </c>
+      <c r="F242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>212309</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D243" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E243" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>212312</v>
+      </c>
+      <c r="B244" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D244" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E244" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>212317</v>
+      </c>
+      <c r="B245" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D245" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>212319</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D246" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E246" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>212325</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D247" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+      <c r="F247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>212336</v>
+      </c>
+      <c r="B248" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D248" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E248" t="s">
+        <v>6</v>
+      </c>
+      <c r="F248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>212352</v>
+      </c>
+      <c r="B249" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D249" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>212359</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D250" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E250" t="s">
+        <v>6</v>
+      </c>
+      <c r="F250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>212410</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D251" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E251" t="s">
+        <v>6</v>
+      </c>
+      <c r="F251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>212420</v>
+      </c>
+      <c r="B252" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D252" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>212430</v>
+      </c>
+      <c r="B253" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D253" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E253" t="s">
+        <v>6</v>
+      </c>
+      <c r="F253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>212444</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D254" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E254" t="s">
+        <v>6</v>
+      </c>
+      <c r="F254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>212446</v>
+      </c>
+      <c r="B255" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D255" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E255" t="s">
+        <v>6</v>
+      </c>
+      <c r="F255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>212448</v>
+      </c>
+      <c r="B256" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D256" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E256" t="s">
+        <v>6</v>
+      </c>
+      <c r="F256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>212486</v>
+      </c>
+      <c r="B257" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D257" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E257" t="s">
+        <v>6</v>
+      </c>
+      <c r="F257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>212589</v>
+      </c>
+      <c r="B258" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D258" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E258" t="s">
+        <v>6</v>
+      </c>
+      <c r="F258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>212594</v>
+      </c>
+      <c r="B259" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D259" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E259" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>220309</v>
+      </c>
+      <c r="B260" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D260" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E260" t="s">
+        <v>6</v>
+      </c>
+      <c r="F260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>220312</v>
+      </c>
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D261" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E261" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>220738</v>
+      </c>
+      <c r="B262" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D262" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E262" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>220865</v>
+      </c>
+      <c r="B263" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D263" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E263" t="s">
+        <v>6</v>
+      </c>
+      <c r="F263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>221611</v>
+      </c>
+      <c r="B264" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D264" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E264" t="s">
+        <v>6</v>
+      </c>
+      <c r="F264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>221648</v>
+      </c>
+      <c r="B265" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D265" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E265" t="s">
+        <v>6</v>
+      </c>
+      <c r="F265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>221659</v>
+      </c>
+      <c r="B266" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D266" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E266" t="s">
+        <v>6</v>
+      </c>
+      <c r="F266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>221663</v>
+      </c>
+      <c r="B267" t="s">
+        <v>8</v>
+      </c>
+      <c r="C267" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D267" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E267" t="s">
+        <v>6</v>
+      </c>
+      <c r="F267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>221664</v>
+      </c>
+      <c r="B268" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D268" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E268" t="s">
+        <v>6</v>
+      </c>
+      <c r="F268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>221671</v>
+      </c>
+      <c r="B269" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D269" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E269" t="s">
+        <v>6</v>
+      </c>
+      <c r="F269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>221679</v>
+      </c>
+      <c r="B270" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D270" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E270" t="s">
+        <v>6</v>
+      </c>
+      <c r="F270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>221684</v>
+      </c>
+      <c r="B271" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D271" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E271" t="s">
+        <v>6</v>
+      </c>
+      <c r="F271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>221685</v>
+      </c>
+      <c r="B272" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D272" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E272" t="s">
+        <v>6</v>
+      </c>
+      <c r="F272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>221687</v>
+      </c>
+      <c r="B273" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D273" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E273" t="s">
+        <v>6</v>
+      </c>
+      <c r="F273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>221754</v>
+      </c>
+      <c r="B274" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D274" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E274" t="s">
+        <v>6</v>
+      </c>
+      <c r="F274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>221780</v>
+      </c>
+      <c r="B275" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D275" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E275" t="s">
+        <v>6</v>
+      </c>
+      <c r="F275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>221790</v>
+      </c>
+      <c r="B276" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D276" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E276" t="s">
+        <v>6</v>
+      </c>
+      <c r="F276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>221800</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D277" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E277" t="s">
+        <v>6</v>
+      </c>
+      <c r="F277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>221801</v>
+      </c>
+      <c r="B278" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D278" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E278" t="s">
+        <v>6</v>
+      </c>
+      <c r="F278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>221811</v>
+      </c>
+      <c r="B279" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D279" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E279" t="s">
+        <v>6</v>
+      </c>
+      <c r="F279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>221820</v>
+      </c>
+      <c r="B280" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D280" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E280" t="s">
+        <v>6</v>
+      </c>
+      <c r="F280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>221824</v>
+      </c>
+      <c r="B281" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D281" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E281" t="s">
+        <v>6</v>
+      </c>
+      <c r="F281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>221827</v>
+      </c>
+      <c r="B282" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D282" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E282" t="s">
+        <v>6</v>
+      </c>
+      <c r="F282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>221843</v>
+      </c>
+      <c r="B283" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D283" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E283" t="s">
+        <v>6</v>
+      </c>
+      <c r="F283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>221846</v>
+      </c>
+      <c r="B284" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D284" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E284" t="s">
+        <v>6</v>
+      </c>
+      <c r="F284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>221849</v>
+      </c>
+      <c r="B285" t="s">
+        <v>8</v>
+      </c>
+      <c r="C285" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D285" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E285" t="s">
+        <v>6</v>
+      </c>
+      <c r="F285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>221858</v>
+      </c>
+      <c r="B286" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D286" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E286" t="s">
+        <v>6</v>
+      </c>
+      <c r="F286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>221871</v>
+      </c>
+      <c r="B287" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D287" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E287" t="s">
+        <v>6</v>
+      </c>
+      <c r="F287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>221879</v>
+      </c>
+      <c r="B288" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D288" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E288" t="s">
+        <v>6</v>
+      </c>
+      <c r="F288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>221881</v>
+      </c>
+      <c r="B289" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D289" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E289" t="s">
+        <v>6</v>
+      </c>
+      <c r="F289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>221886</v>
+      </c>
+      <c r="B290" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D290" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E290" t="s">
+        <v>6</v>
+      </c>
+      <c r="F290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>221887</v>
+      </c>
+      <c r="B291" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D291" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E291" t="s">
+        <v>6</v>
+      </c>
+      <c r="F291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>221951</v>
+      </c>
+      <c r="B292" t="s">
+        <v>8</v>
+      </c>
+      <c r="C292" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D292" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E292" t="s">
+        <v>6</v>
+      </c>
+      <c r="F292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>221969</v>
+      </c>
+      <c r="B293" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D293" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E293" t="s">
+        <v>6</v>
+      </c>
+      <c r="F293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>222010</v>
+      </c>
+      <c r="B294" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D294" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E294" t="s">
+        <v>6</v>
+      </c>
+      <c r="F294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>222016</v>
+      </c>
+      <c r="B295" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D295" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E295" t="s">
+        <v>6</v>
+      </c>
+      <c r="F295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>222021</v>
+      </c>
+      <c r="B296" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D296" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E296" t="s">
+        <v>6</v>
+      </c>
+      <c r="F296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>222030</v>
+      </c>
+      <c r="B297" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D297" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E297" t="s">
+        <v>6</v>
+      </c>
+      <c r="F297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>222038</v>
+      </c>
+      <c r="B298" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D298" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E298" t="s">
+        <v>6</v>
+      </c>
+      <c r="F298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>222043</v>
+      </c>
+      <c r="B299" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D299" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E299" t="s">
+        <v>6</v>
+      </c>
+      <c r="F299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>222057</v>
+      </c>
+      <c r="B300" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D300" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E300" t="s">
+        <v>6</v>
+      </c>
+      <c r="F300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>222070</v>
+      </c>
+      <c r="B301" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D301" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E301" t="s">
+        <v>6</v>
+      </c>
+      <c r="F301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>222084</v>
+      </c>
+      <c r="B302" t="s">
+        <v>8</v>
+      </c>
+      <c r="C302" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D302" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E302" t="s">
+        <v>6</v>
+      </c>
+      <c r="F302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>222093</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D303" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E303" t="s">
+        <v>6</v>
+      </c>
+      <c r="F303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>222103</v>
+      </c>
+      <c r="B304" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D304" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E304" t="s">
+        <v>6</v>
+      </c>
+      <c r="F304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>222104</v>
+      </c>
+      <c r="B305" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D305" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E305" t="s">
+        <v>6</v>
+      </c>
+      <c r="F305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>222118</v>
+      </c>
+      <c r="B306" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" s="1">
+        <v>45937</v>
+      </c>
+      <c r="D306" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E306" t="s">
+        <v>6</v>
+      </c>
+      <c r="F306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F306">
+    <sortCondition ref="C2:C306"/>
+    <sortCondition ref="D2:D306"/>
+    <sortCondition ref="A2:A306"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:B1 E1:F1">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D1">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
